--- a/Assets/Refactoring/06_Data/Excel/MonsterUnitData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/MonsterUnitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2262DC-9128-4089-A2F4-91B1F2B7C513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512ED3CD-1FC5-44F7-B570-04651C780956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57390" yWindow="1995" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="5070" yWindow="2610" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,20 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>UnitName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UnitPrefabPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Health</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,11 +56,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bear.Prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitPrefabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,178 +435,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F37" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G37">
-    <sortCondition ref="D37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
+    <sortCondition ref="C37"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Refactoring/06_Data/Excel/MonsterUnitData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/MonsterUnitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512ED3CD-1FC5-44F7-B570-04651C780956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB72309-05F4-4582-9CC9-01E98364D29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="2610" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="26535" yWindow="3375" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>UnitName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,23 +48,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dHealth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>곰돌이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UnitPrefabName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHealth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,14 +107,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,19 +428,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -463,143 +456,38 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
       </c>
       <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
-    <sortCondition ref="C37"/>
+    <sortCondition ref="D37"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Refactoring/06_Data/Excel/MonsterUnitData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/MonsterUnitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB72309-05F4-4582-9CC9-01E98364D29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3417F399-FF7C-4DA2-BF26-4987D1A78632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26535" yWindow="3375" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="26535" yWindow="8625" windowWidth="21810" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -479,7 +479,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
